--- a/medicine/Mort/Cimetière_marin_de_Bonifacio/Cimetière_marin_de_Bonifacio.xlsx
+++ b/medicine/Mort/Cimetière_marin_de_Bonifacio/Cimetière_marin_de_Bonifacio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Bonifacio</t>
+          <t>Cimetière_marin_de_Bonifacio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière marin de Bonifacio est un cimetière marin se trouvant dans la ville de Bonifacio, en Corse. Il est aussi appelé cimetière marin de Saint-François. Il est visité par plus de 500 000 personnes par an[1]. Il se trouve sur la falaise à proximité de l'église Saint-François (San Franzé) où sont généralement célébrées les funérailles des défunts.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière marin de Bonifacio est un cimetière marin se trouvant dans la ville de Bonifacio, en Corse. Il est aussi appelé cimetière marin de Saint-François. Il est visité par plus de 500 000 personnes par an. Il se trouve sur la falaise à proximité de l'église Saint-François (San Franzé) où sont généralement célébrées les funérailles des défunts.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Bonifacio</t>
+          <t>Cimetière_marin_de_Bonifacio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans ce cimetière qu'est inhumée dans le caveau familial l'actrice Marie-José Nat (1940-2019)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans ce cimetière qu'est inhumée dans le caveau familial l'actrice Marie-José Nat (1940-2019).
 </t>
         </is>
       </c>
